--- a/data/case1/15/Q1_3.xlsx
+++ b/data/case1/15/Q1_3.xlsx
@@ -61,167 +61,167 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.12777022264996418</v>
+        <v>0.21540988069379097</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>0.0067848445387745926</v>
+        <v>-0.02571903125005548</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.0039999999510218487</v>
+        <v>-0.0039999999318904855</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.007999999909115374</v>
+        <v>-0.0079999998760094115</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.0029999999546062028</v>
+        <v>-0.0029999999266037136</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.0019999999567783533</v>
+        <v>-0.0012011289736744146</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.009999999881040722</v>
+        <v>-0.0099999998245414723</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.0099999998852551286</v>
+        <v>-0.0099999998249291622</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.0019999999709763294</v>
+        <v>-0.0019999999223467846</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.0019999999799829027</v>
+        <v>-0.0019999999259709966</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-0.002999999970930034</v>
+        <v>0.032171490730919849</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.070808789842156106</v>
+        <v>-0.0034999999077247601</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.0034999999636040613</v>
+        <v>-0.003499999904274631</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-0.0079999999191056048</v>
+        <v>0.032705075707771591</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.0009999999861491915</v>
+        <v>-0.00099999992771326873</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.0019999999758137932</v>
+        <v>-0.036173018996970008</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.0019999999750188735</v>
+        <v>-0.001999999907887684</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.0039999999555293542</v>
+        <v>-0.0039999998838782247</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.004929937537406115</v>
+        <v>-0.0039999999495861083</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.008148202631550916</v>
+        <v>-0.0039999999458046887</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.0039999999537219111</v>
+        <v>-0.0039999999452264845</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.0039999999534954256</v>
+        <v>-0.0039999999447157819</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.0049999999381435956</v>
+        <v>-0.0049999999158529818</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.0199999997884861</v>
+        <v>-0.019999999732557505</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.019999999785654587</v>
+        <v>-0.019999999728751661</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.0024999999507624437</v>
+        <v>-0.0024999999086769975</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.0024999999481920554</v>
+        <v>-0.0024999999028842979</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.0019999999395139412</v>
+        <v>-0.0019999998856121692</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.0069999998822476428</v>
+        <v>-0.006999999809862878</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.032999670861255215</v>
+        <v>-0.05999999917597032</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.0069999998741092639</v>
+        <v>-0.0069999997958376525</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.0099999998446609339</v>
+        <v>-0.0099999997599358181</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>-0.0039999999025663868</v>
+        <v>-0.0039999998305439988</v>
       </c>
     </row>
   </sheetData>
